--- a/0_ref/scope.xlsx
+++ b/0_ref/scope.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://barnetcouncil.sharepoint.com/teams/IIHub/Shared Documents/General/02. Project Documentation/07. Standard Projects/ARC_LBB/0_ref/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://barnetcouncil.sharepoint.com/teams/IIHub/Shared Documents/General/02. Project Documentation/07. Standard Projects/ARC_LBB/temp/0_ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="8_{22789243-F1B1-4E10-85F8-CA679EB8FB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{606E9B59-3031-450C-BA53-9424B57BDC8B}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="8_{22789243-F1B1-4E10-85F8-CA679EB8FB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A015E903-EF0E-4C22-AD20-5E09C9365382}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9227A56A-2FAB-4E39-8DF9-D542C632B019}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9227A56A-2FAB-4E39-8DF9-D542C632B019}"/>
   </bookViews>
   <sheets>
     <sheet name="scope" sheetId="1" r:id="rId1"/>
     <sheet name="crime" sheetId="3" r:id="rId2"/>
     <sheet name="plan" sheetId="4" r:id="rId3"/>
-    <sheet name="qs" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
   <si>
     <t>Dataset</t>
   </si>
@@ -203,9 +202,6 @@
     <t xml:space="preserve">Binary labelling of crime risk for homogenous micro-areas: high / low </t>
   </si>
   <si>
-    <t>How to account for time - but crime data's temporal granularity drilled down to month only</t>
-  </si>
-  <si>
     <t>"yyyy-mm"</t>
   </si>
   <si>
@@ -239,9 +235,6 @@
     <t>PCA transformation</t>
   </si>
   <si>
-    <t>Homogenous microarea</t>
-  </si>
-  <si>
     <t>Logistic regression</t>
   </si>
   <si>
@@ -297,6 +290,28 @@
   </si>
   <si>
     <t>Relative risk</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Soucred stop-and-search locations as points</t>
+  </si>
+  <si>
+    <t>Sourced crime locations as points</t>
+  </si>
+  <si>
+    <t>Converted postcodes to lat &amp; long, hence, points</t>
+  </si>
+  <si>
+    <t>Addresses cannot be geocoded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sourced buildings, amenities, public transports as points and/or polygons
+Need to figure out what else to include and exclude </t>
   </si>
 </sst>
 </file>
@@ -320,12 +335,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -355,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -374,6 +407,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D164B25-8BA7-4C32-8202-2889B1319869}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,12 +748,13 @@
     <col min="1" max="1" width="33.5546875" style="1" customWidth="1"/>
     <col min="2" max="3" width="49" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="34.77734375" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="34.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -722,58 +771,70 @@
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -790,8 +851,9 @@
         <v>23</v>
       </c>
       <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -806,54 +868,68 @@
         <v>23</v>
       </c>
       <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -919,7 +995,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -955,7 +1031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D34D5D-62D7-4A8C-ABA7-F411D8F5BAC9}">
   <dimension ref="A2:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -971,7 +1047,7 @@
       </c>
       <c r="B2" s="8"/>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -991,41 +1067,41 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1034,7 +1110,7 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1042,7 +1118,7 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1051,7 +1127,7 @@
       </c>
       <c r="B17" s="8"/>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1061,98 +1137,98 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1167,32 +1243,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3F78A7-888B-43DB-AA16-60535B442BA6}">
-  <dimension ref="A2:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005DE870554D709E4B806BCA475A6F2B6F" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1db0855aec82f3c523009f75ee5aca3e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3afbc23c-5d5f-490c-ba24-f26f24ccab85" xmlns:ns3="47a22b0c-a034-41ca-805d-a538799fcb18" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a8fc7a0df3c463d95ed7ba75eedf936e" ns2:_="" ns3:_="">
     <xsd:import namespace="3afbc23c-5d5f-490c-ba24-f26f24ccab85"/>
@@ -1441,15 +1501,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1462,15 +1513,41 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71770705-3A12-4E69-A44B-D7265B592F02}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C017B0DE-D662-4171-8198-33441BB6510C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C017B0DE-D662-4171-8198-33441BB6510C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71770705-3A12-4E69-A44B-D7265B592F02}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3afbc23c-5d5f-490c-ba24-f26f24ccab85"/>
+    <ds:schemaRef ds:uri="47a22b0c-a034-41ca-805d-a538799fcb18"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E066D94-CEDB-4DA7-B498-FFC1AEF1437C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E066D94-CEDB-4DA7-B498-FFC1AEF1437C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3afbc23c-5d5f-490c-ba24-f26f24ccab85"/>
+    <ds:schemaRef ds:uri="47a22b0c-a034-41ca-805d-a538799fcb18"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
